--- a/Web/ReporteSpreadsheet.xlsx
+++ b/Web/ReporteSpreadsheet.xlsx
@@ -8,43 +8,52 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Gráficas" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RvsRPM9" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="RvsEfm11" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="RvsEft11" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="RvsRPM8" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="RvsEfm10" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="RvsEft10" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="RvsRPM7" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="RvsEfm9" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="RvsEft9" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="RvsRPM6" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="RvsEfm8" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="RvsEft8" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="RvsRPM5" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="RvsEfm7" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="RvsEft7" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="RvsRPM4" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="RvsEfm6" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="RvsEft6" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="RvsRPM3" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="RvsEfm5" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="RvsEft5" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="RvsRPM2" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="RvsEfm4" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="RvsEft4" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="RvsRPM1" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="RvsEfm3" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="RvsEft3" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="RvsRPM" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="RvsEfm2" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="RvsEft2" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="Gráficas3" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="RvsEfm1" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="RvsEft1" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="Gráficas2" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="RvsEfm" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="RvsEft" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="Gráficas1" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="RvsRPM12" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="RvsEfm14" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="RvsEft14" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="RvsRPM11" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="RvsEfm13" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="RvsEft13" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="RvsRPM10" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="RvsEfm12" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="RvsEft12" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="RvsRPM9" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="RvsEfm11" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="RvsEft11" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="RvsRPM8" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="RvsEfm10" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="RvsEft10" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="RvsRPM7" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="RvsEfm9" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="RvsEft9" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="RvsRPM6" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="RvsEfm8" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="RvsEft8" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="RvsRPM5" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="RvsEfm7" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="RvsEft7" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="RvsRPM4" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="RvsEfm6" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="RvsEft6" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="RvsRPM3" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="RvsEfm5" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="RvsEft5" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="RvsRPM2" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="RvsEfm4" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="RvsEft4" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="RvsRPM1" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="RvsEfm3" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="RvsEft3" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="RvsRPM" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="RvsEfm2" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="RvsEft2" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="Gráficas3" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="RvsEfm1" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="RvsEft1" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="Gráficas2" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="RvsEfm" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="RvsEft" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="Gráficas1" sheetId="48" state="visible" r:id="rId48"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -963,6 +972,1059 @@
           <order val="0"/>
           <tx>
             <strRef>
+              <f>'RvsEft12'!B2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'RvsEft12'!$B$1:$A$1</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'RvsEft12'!$C$2:$A$2</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Eft</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>R</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>R[Ω] vs RPM</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'RvsRPM9'!B2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'RvsRPM9'!$B$1:$A$1</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'RvsRPM9'!$C$2:$A$2</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>RPM</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>R[Ω]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>R[Ω] vs Eficiencia Generador</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'RvsEfm11'!B2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'RvsEfm11'!$B$1:$A$1</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'RvsEfm11'!$C$2:$A$2</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Efm</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>R[Ω]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>R[Ω] vs Eficiencia turbina</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'RvsEft11'!B2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'RvsEft11'!$B$1:$A$1</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'RvsEft11'!$C$2:$A$2</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Eft</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>R</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>R[Ω] vs RPM</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'RvsRPM8'!B2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'RvsRPM8'!$B$1:$A$1</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'RvsRPM8'!$C$2:$A$2</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>RPM</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>R[Ω]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>R[Ω] vs Eficiencia Generador</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'RvsEfm10'!B2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'RvsEfm10'!$B$1:$A$1</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'RvsEfm10'!$C$2:$A$2</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Efm</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>R[Ω]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>R[Ω] vs Eficiencia turbina</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'RvsEft10'!B2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'RvsEft10'!$B$1:$A$1</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'RvsEft10'!$C$2:$A$2</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Eft</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>R</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>R[Ω] vs RPM</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'RvsRPM7'!B2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'RvsRPM7'!$B$1:$E$1</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'RvsRPM7'!$C$2:$E$2</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>RPM</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>R[Ω]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>R[Ω] vs Eficiencia Generador</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'RvsEfm9'!B2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'RvsEfm9'!$B$1:$E$1</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'RvsEfm9'!$C$2:$E$2</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Efm</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>R[Ω]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>R[Ω] vs Eficiencia turbina</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
               <f>'RvsEft9'!B2</f>
             </strRef>
           </tx>
@@ -1055,7 +2117,124 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>R[Ω] vs RPM</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'RvsRPM12'!B2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'RvsRPM12'!$B$1:$A$1</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'RvsRPM12'!$C$2:$A$2</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>RPM</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>R[Ω]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -1172,7 +2351,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -1289,7 +2468,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -1406,7 +2585,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -1523,7 +2702,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -1640,7 +2819,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -1757,7 +2936,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -1874,7 +3053,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -1991,7 +3170,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -2108,124 +3287,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>R[Ω] vs RPM</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'RvsRPM9'!B2</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'RvsRPM9'!$B$1:$A$1</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'RvsRPM9'!$C$2:$A$2</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>RPM</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>R[Ω]</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -2342,7 +3404,124 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>R[Ω] vs Eficiencia Generador</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'RvsEfm14'!B2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'RvsEfm14'!$B$1:$A$1</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'RvsEfm14'!$C$2:$A$2</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Efm</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>R[Ω]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -2459,7 +3638,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -2576,7 +3755,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -2693,7 +3872,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -2810,7 +3989,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -2927,7 +4106,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -3044,7 +4223,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -3161,7 +4340,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -3278,7 +4457,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -3395,124 +4574,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>R[Ω] vs Eficiencia Generador</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'RvsEfm11'!B2</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'RvsEfm11'!$B$1:$A$1</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'RvsEfm11'!$C$2:$A$2</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Efm</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>R[Ω]</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -3629,7 +4691,124 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>R[Ω] vs Eficiencia turbina</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <scatterChart>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'RvsEft14'!B2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>'RvsEft14'!$B$1:$A$1</f>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>'RvsEft14'!$C$2:$A$2</f>
+            </numRef>
+          </yVal>
+        </ser>
+        <axId val="10"/>
+        <axId val="20"/>
+      </scatterChart>
+      <valAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Eft</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="20"/>
+      </valAx>
+      <valAx>
+        <axId val="20"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>R</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -3746,7 +4925,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -3863,7 +5042,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -3980,7 +5159,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -4097,7 +5276,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -4214,7 +5393,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -4331,7 +5510,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -4448,7 +5627,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -4565,123 +5744,6 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>R[Ω] vs Eficiencia turbina</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <scatterChart>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'RvsEft11'!B2</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <xVal>
-            <numRef>
-              <f>'RvsEft11'!$B$1:$A$1</f>
-            </numRef>
-          </xVal>
-          <yVal>
-            <numRef>
-              <f>'RvsEft11'!$C$2:$A$2</f>
-            </numRef>
-          </yVal>
-        </ser>
-        <axId val="10"/>
-        <axId val="20"/>
-      </scatterChart>
-      <valAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Eft</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="20"/>
-      </valAx>
-      <valAx>
-        <axId val="20"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>R</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
@@ -4707,7 +5769,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'RvsRPM8'!B2</f>
+              <f>'RvsRPM11'!B2</f>
             </strRef>
           </tx>
           <spPr>
@@ -4725,12 +5787,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'RvsRPM8'!$B$1:$A$1</f>
+              <f>'RvsRPM11'!$B$1:$A$1</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'RvsRPM8'!$C$2:$A$2</f>
+              <f>'RvsRPM11'!$C$2:$A$2</f>
             </numRef>
           </yVal>
         </ser>
@@ -4824,7 +5886,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'RvsEfm10'!B2</f>
+              <f>'RvsEfm13'!B2</f>
             </strRef>
           </tx>
           <spPr>
@@ -4842,12 +5904,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'RvsEfm10'!$B$1:$A$1</f>
+              <f>'RvsEfm13'!$B$1:$A$1</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'RvsEfm10'!$C$2:$A$2</f>
+              <f>'RvsEfm13'!$C$2:$A$2</f>
             </numRef>
           </yVal>
         </ser>
@@ -4941,7 +6003,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'RvsEft10'!B2</f>
+              <f>'RvsEft13'!B2</f>
             </strRef>
           </tx>
           <spPr>
@@ -4959,12 +6021,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'RvsEft10'!$B$1:$A$1</f>
+              <f>'RvsEft13'!$B$1:$A$1</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'RvsEft10'!$C$2:$A$2</f>
+              <f>'RvsEft13'!$C$2:$A$2</f>
             </numRef>
           </yVal>
         </ser>
@@ -5058,7 +6120,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'RvsRPM7'!B2</f>
+              <f>'RvsRPM10'!B2</f>
             </strRef>
           </tx>
           <spPr>
@@ -5076,12 +6138,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'RvsRPM7'!$B$1:$E$1</f>
+              <f>'RvsRPM10'!$B$1:$A$1</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'RvsRPM7'!$C$2:$E$2</f>
+              <f>'RvsRPM10'!$C$2:$A$2</f>
             </numRef>
           </yVal>
         </ser>
@@ -5175,7 +6237,7 @@
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'RvsEfm9'!B2</f>
+              <f>'RvsEfm12'!B2</f>
             </strRef>
           </tx>
           <spPr>
@@ -5193,12 +6255,12 @@
           </marker>
           <xVal>
             <numRef>
-              <f>'RvsEfm9'!$B$1:$E$1</f>
+              <f>'RvsEfm12'!$B$1:$A$1</f>
             </numRef>
           </xVal>
           <yVal>
             <numRef>
-              <f>'RvsEfm9'!$C$2:$E$2</f>
+              <f>'RvsEfm12'!$C$2:$A$2</f>
             </numRef>
           </yVal>
         </ser>
@@ -7082,6 +8144,90 @@
       </blipFill>
       <spPr>
         <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9525000" cy="1009650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="57" name="Image 57" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9525000" cy="1009650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="58" name="Image 58" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+        <a:ln>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="9525000" cy="1009650"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="59" name="Image 59" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -7954,6 +9100,249 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing40.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing41.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing42.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing43.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing44.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing45.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing46.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing47.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing48.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
@@ -8376,7 +9765,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A5:J63"/>
+  <dimension ref="A5:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
@@ -8454,16 +9843,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-1296</v>
+        <v>407</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0101</v>
+        <v>0.0032</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -8486,16 +9875,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2289</v>
+        <v>325</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0179</v>
+        <v>0.0025</v>
       </c>
       <c r="E7" t="n">
-        <v>6198</v>
+        <v>-2</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0484</v>
+        <v>-0</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -8518,16 +9907,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-1420</v>
+        <v>366</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0111</v>
+        <v>0.0029</v>
       </c>
       <c r="E8" t="n">
-        <v>6919</v>
+        <v>-1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0541</v>
+        <v>-0</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -8550,16 +9939,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>2704</v>
+        <v>285</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0211</v>
+        <v>0.0022</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -8582,16 +9971,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-1713</v>
+        <v>367</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0134</v>
+        <v>0.0029</v>
       </c>
       <c r="E10" t="n">
-        <v>6300</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0492</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
@@ -8614,16 +10003,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>2673</v>
+        <v>326</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0209</v>
+        <v>0.0025</v>
       </c>
       <c r="E11" t="n">
-        <v>4761</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0372</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>5</v>
@@ -8646,16 +10035,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>-1807</v>
+        <v>365</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0141</v>
+        <v>0.0029</v>
       </c>
       <c r="E12" t="n">
-        <v>4709</v>
+        <v>-1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0368</v>
+        <v>-0</v>
       </c>
       <c r="G12" t="n">
         <v>6</v>
@@ -8678,16 +10067,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>2688</v>
+        <v>325</v>
       </c>
       <c r="D13" t="n">
-        <v>0.021</v>
+        <v>0.0025</v>
       </c>
       <c r="E13" t="n">
-        <v>7338</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0573</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>7</v>
@@ -8710,16 +10099,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-1632</v>
+        <v>326</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0127</v>
+        <v>0.0025</v>
       </c>
       <c r="E14" t="n">
-        <v>4934</v>
+        <v>-2</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0385</v>
+        <v>-0</v>
       </c>
       <c r="G14" t="n">
         <v>8</v>
@@ -8742,16 +10131,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>2441</v>
+        <v>327</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0191</v>
+        <v>0.0026</v>
       </c>
       <c r="E15" t="n">
-        <v>6014</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.047</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>9</v>
@@ -8774,16 +10163,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-1315</v>
+        <v>366</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.0103</v>
+        <v>0.0029</v>
       </c>
       <c r="E16" t="n">
-        <v>1166</v>
+        <v>-2</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0091</v>
+        <v>-0</v>
       </c>
       <c r="G16" t="n">
         <v>10</v>
@@ -8806,16 +10195,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1894</v>
+        <v>366</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0148</v>
+        <v>0.0029</v>
       </c>
       <c r="E17" t="n">
-        <v>6538</v>
+        <v>-1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0511</v>
+        <v>-0</v>
       </c>
       <c r="G17" t="n">
         <v>11</v>
@@ -8838,16 +10227,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>-407</v>
+        <v>326</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0032</v>
+        <v>0.0025</v>
       </c>
       <c r="E18" t="n">
-        <v>8118</v>
+        <v>-1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0634</v>
+        <v>-0</v>
       </c>
       <c r="G18" t="n">
         <v>12</v>
@@ -8870,16 +10259,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>589</v>
+        <v>286</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0046</v>
+        <v>0.0022</v>
       </c>
       <c r="E19" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>13</v>
@@ -8902,16 +10291,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1190</v>
+        <v>325</v>
       </c>
       <c r="D20" t="n">
-        <v>0.009299999999999999</v>
+        <v>0.0025</v>
       </c>
       <c r="E20" t="n">
-        <v>7116</v>
+        <v>-1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0556</v>
+        <v>-0</v>
       </c>
       <c r="G20" t="n">
         <v>14</v>
@@ -8934,19 +10323,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>-1081</v>
+        <v>366</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.008399999999999999</v>
+        <v>0.0029</v>
       </c>
       <c r="E21" t="n">
-        <v>7006</v>
+        <v>-1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0547</v>
+        <v>-0</v>
       </c>
       <c r="G21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -8966,19 +10355,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1603</v>
+        <v>365</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0125</v>
+        <v>0.0029</v>
       </c>
       <c r="E22" t="n">
-        <v>5752</v>
+        <v>-2</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0449</v>
+        <v>-0</v>
       </c>
       <c r="G22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -8998,19 +10387,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>-1324</v>
+        <v>366</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.0103</v>
+        <v>0.0029</v>
       </c>
       <c r="E23" t="n">
-        <v>5764</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.045</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -9030,19 +10419,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>1902</v>
+        <v>407</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0149</v>
+        <v>0.0032</v>
       </c>
       <c r="E24" t="n">
-        <v>6624</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0518</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -9062,19 +10451,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>-923</v>
+        <v>286</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.0072</v>
+        <v>0.0022</v>
       </c>
       <c r="E25" t="n">
-        <v>6270</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.049</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -9094,19 +10483,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1349</v>
+        <v>325</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0105</v>
+        <v>0.0025</v>
       </c>
       <c r="E26" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -9126,19 +10515,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>-693</v>
+        <v>368</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.0054</v>
+        <v>0.0029</v>
       </c>
       <c r="E27" t="n">
-        <v>6399</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -9158,19 +10547,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1137</v>
+        <v>325</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0089</v>
+        <v>0.0025</v>
       </c>
       <c r="E28" t="n">
-        <v>4001</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0313</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -9190,19 +10579,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-122</v>
+        <v>326</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.001</v>
+        <v>0.0025</v>
       </c>
       <c r="E29" t="n">
-        <v>7212</v>
+        <v>-1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0563</v>
+        <v>-0</v>
       </c>
       <c r="G29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -9222,19 +10611,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>586</v>
+        <v>366</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0046</v>
+        <v>0.0029</v>
       </c>
       <c r="E30" t="n">
-        <v>5714</v>
+        <v>-1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0446</v>
+        <v>-0</v>
       </c>
       <c r="G30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -9254,19 +10643,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>775</v>
+        <v>286</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0061</v>
+        <v>0.0022</v>
       </c>
       <c r="E31" t="n">
-        <v>6503</v>
+        <v>-2</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0508</v>
+        <v>-0</v>
       </c>
       <c r="G31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -9286,19 +10675,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>-260</v>
+        <v>366</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.002</v>
+        <v>0.0029</v>
       </c>
       <c r="E32" t="n">
-        <v>5848</v>
+        <v>-1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0457</v>
+        <v>-0</v>
       </c>
       <c r="G32" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -9318,19 +10707,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>1953</v>
+        <v>327</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0153</v>
+        <v>0.0026</v>
       </c>
       <c r="E33" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0001</v>
+        <v>-0</v>
       </c>
       <c r="G33" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -9350,16 +10739,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>-1174</v>
+        <v>283</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.0092</v>
+        <v>0.0022</v>
       </c>
       <c r="E34" t="n">
-        <v>7323</v>
+        <v>-1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0572</v>
+        <v>-0</v>
       </c>
       <c r="G34" t="n">
         <v>29</v>
@@ -9382,16 +10771,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>3012</v>
+        <v>366</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0235</v>
+        <v>0.0029</v>
       </c>
       <c r="E35" t="n">
-        <v>7040</v>
+        <v>-1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.055</v>
+        <v>-0</v>
       </c>
       <c r="G35" t="n">
         <v>30</v>
@@ -9414,16 +10803,16 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>-2467</v>
+        <v>365</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.0193</v>
+        <v>0.0029</v>
       </c>
       <c r="E36" t="n">
-        <v>4520</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0353</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>31</v>
@@ -9446,16 +10835,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>3921</v>
+        <v>328</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0306</v>
+        <v>0.0026</v>
       </c>
       <c r="E37" t="n">
-        <v>29</v>
+        <v>-3</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0002</v>
+        <v>-0</v>
       </c>
       <c r="G37" t="n">
         <v>32</v>
@@ -9478,16 +10867,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-2844</v>
+        <v>325</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.0222</v>
+        <v>0.0025</v>
       </c>
       <c r="E38" t="n">
-        <v>6939</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0542</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>33</v>
@@ -9510,16 +10899,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>4069</v>
+        <v>327</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0318</v>
+        <v>0.0026</v>
       </c>
       <c r="E39" t="n">
-        <v>6897</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0539</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>34</v>
@@ -9542,16 +10931,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>-3065</v>
+        <v>325</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.0239</v>
+        <v>0.0025</v>
       </c>
       <c r="E40" t="n">
-        <v>1167</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0091</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>35</v>
@@ -9574,16 +10963,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>4057</v>
+        <v>325</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0317</v>
+        <v>0.0025</v>
       </c>
       <c r="E41" t="n">
-        <v>6411</v>
+        <v>-2</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0501</v>
+        <v>-0</v>
       </c>
       <c r="G41" t="n">
         <v>36</v>
@@ -9606,13 +10995,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>-3250</v>
+        <v>365</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.0254</v>
+        <v>0.0029</v>
       </c>
       <c r="E42" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="F42" t="n">
         <v>-0</v>
@@ -9638,16 +11027,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>4012</v>
+        <v>326</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0313</v>
+        <v>0.0025</v>
       </c>
       <c r="E43" t="n">
-        <v>7051</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0551</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>38</v>
@@ -9670,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-3303</v>
+        <v>364</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.0258</v>
+        <v>0.0028</v>
       </c>
       <c r="E44" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0001</v>
+        <v>-0</v>
       </c>
       <c r="G44" t="n">
         <v>39</v>
@@ -9692,614 +11081,6 @@
       </c>
       <c r="J44" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>0</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" t="n">
-        <v>4032</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.0315</v>
-      </c>
-      <c r="E45" t="n">
-        <v>7429</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="G45" t="n">
-        <v>40</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>1</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>-3276</v>
-      </c>
-      <c r="D46" t="n">
-        <v>-0.0256</v>
-      </c>
-      <c r="E46" t="n">
-        <v>6685</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.0522</v>
-      </c>
-      <c r="G46" t="n">
-        <v>41</v>
-      </c>
-      <c r="H46" t="n">
-        <v>-1.361401185959551e-06</v>
-      </c>
-      <c r="I46" t="n">
-        <v>-207.7333352599413</v>
-      </c>
-      <c r="J46" t="n">
-        <v>-200.1496713901759</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>1</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" t="n">
-        <v>4386</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.0343</v>
-      </c>
-      <c r="E47" t="n">
-        <v>5380</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.042</v>
-      </c>
-      <c r="G47" t="n">
-        <v>42</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1.441532930383163e-06</v>
-      </c>
-      <c r="I47" t="n">
-        <v>122.5282773659923</v>
-      </c>
-      <c r="J47" t="n">
-        <v>122.3697331375652</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>1</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" t="n">
-        <v>-3175</v>
-      </c>
-      <c r="D48" t="n">
-        <v>-0.0248</v>
-      </c>
-      <c r="E48" t="n">
-        <v>11389</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.089</v>
-      </c>
-      <c r="G48" t="n">
-        <v>43</v>
-      </c>
-      <c r="H48" t="n">
-        <v>-2.232306638012894e-06</v>
-      </c>
-      <c r="I48" t="n">
-        <v>-362.9530824032411</v>
-      </c>
-      <c r="J48" t="n">
-        <v>-354.8347644143971</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>1</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>4167</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.0326</v>
-      </c>
-      <c r="E49" t="n">
-        <v>7908</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.0618</v>
-      </c>
-      <c r="G49" t="n">
-        <v>44</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2.018679047584519e-06</v>
-      </c>
-      <c r="I49" t="n">
-        <v>189.9468410162708</v>
-      </c>
-      <c r="J49" t="n">
-        <v>189.195008714732</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>1</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0</v>
-      </c>
-      <c r="C50" t="n">
-        <v>-3166</v>
-      </c>
-      <c r="D50" t="n">
-        <v>-0.0247</v>
-      </c>
-      <c r="E50" t="n">
-        <v>12385</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.0968</v>
-      </c>
-      <c r="G50" t="n">
-        <v>45</v>
-      </c>
-      <c r="H50" t="n">
-        <v>-2.41681550134617e-06</v>
-      </c>
-      <c r="I50" t="n">
-        <v>-396.1408155101984</v>
-      </c>
-      <c r="J50" t="n">
-        <v>-387.7101911495008</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>1</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>4005</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.0313</v>
-      </c>
-      <c r="E51" t="n">
-        <v>9109</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.0712</v>
-      </c>
-      <c r="G51" t="n">
-        <v>46</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2.234126894628929e-06</v>
-      </c>
-      <c r="I51" t="n">
-        <v>228.0442685572915</v>
-      </c>
-      <c r="J51" t="n">
-        <v>226.9092240099456</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>1</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>-3230</v>
-      </c>
-      <c r="D52" t="n">
-        <v>-0.0252</v>
-      </c>
-      <c r="E52" t="n">
-        <v>10959</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.0856</v>
-      </c>
-      <c r="G52" t="n">
-        <v>47</v>
-      </c>
-      <c r="H52" t="n">
-        <v>-2.182513161029854e-06</v>
-      </c>
-      <c r="I52" t="n">
-        <v>-343.6812107945726</v>
-      </c>
-      <c r="J52" t="n">
-        <v>-335.7303924134169</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>1</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0</v>
-      </c>
-      <c r="C53" t="n">
-        <v>4243</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.0331</v>
-      </c>
-      <c r="E53" t="n">
-        <v>10648</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.0832</v>
-      </c>
-      <c r="G53" t="n">
-        <v>48</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2.761532879764209e-06</v>
-      </c>
-      <c r="I53" t="n">
-        <v>252.0543696903286</v>
-      </c>
-      <c r="J53" t="n">
-        <v>250.6665790845499</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>1</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>-3157</v>
-      </c>
-      <c r="D54" t="n">
-        <v>-0.0247</v>
-      </c>
-      <c r="E54" t="n">
-        <v>9186</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.0718</v>
-      </c>
-      <c r="G54" t="n">
-        <v>49</v>
-      </c>
-      <c r="H54" t="n">
-        <v>-1.796776719234307e-06</v>
-      </c>
-      <c r="I54" t="n">
-        <v>-294.5101082191654</v>
-      </c>
-      <c r="J54" t="n">
-        <v>-286.9160060242152</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>1</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4308</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.0337</v>
-      </c>
-      <c r="E55" t="n">
-        <v>9454</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.07389999999999999</v>
-      </c>
-      <c r="G55" t="n">
-        <v>50</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2.496400734508876e-06</v>
-      </c>
-      <c r="I55" t="n">
-        <v>219.8135701211489</v>
-      </c>
-      <c r="J55" t="n">
-        <v>218.7633549576886</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>1</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0</v>
-      </c>
-      <c r="C56" t="n">
-        <v>-3255</v>
-      </c>
-      <c r="D56" t="n">
-        <v>-0.0254</v>
-      </c>
-      <c r="E56" t="n">
-        <v>10350</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.0809</v>
-      </c>
-      <c r="G56" t="n">
-        <v>51</v>
-      </c>
-      <c r="H56" t="n">
-        <v>-2.080115859864142e-06</v>
-      </c>
-      <c r="I56" t="n">
-        <v>-322.4186031161482</v>
-      </c>
-      <c r="J56" t="n">
-        <v>-314.6368010687376</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>1</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0</v>
-      </c>
-      <c r="C57" t="n">
-        <v>4491</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.0351</v>
-      </c>
-      <c r="E57" t="n">
-        <v>11364</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.0888</v>
-      </c>
-      <c r="G57" t="n">
-        <v>52</v>
-      </c>
-      <c r="H57" t="n">
-        <v>3.125548874208543e-06</v>
-      </c>
-      <c r="I57" t="n">
-        <v>253.6950896671735</v>
-      </c>
-      <c r="J57" t="n">
-        <v>252.2897678890644</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>1</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0</v>
-      </c>
-      <c r="C58" t="n">
-        <v>-3091</v>
-      </c>
-      <c r="D58" t="n">
-        <v>-0.0241</v>
-      </c>
-      <c r="E58" t="n">
-        <v>8794</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.0687</v>
-      </c>
-      <c r="G58" t="n">
-        <v>53</v>
-      </c>
-      <c r="H58" t="n">
-        <v>-1.67777683331335e-06</v>
-      </c>
-      <c r="I58" t="n">
-        <v>-288.8684480834266</v>
-      </c>
-      <c r="J58" t="n">
-        <v>-281.3061848445804</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>1</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0</v>
-      </c>
-      <c r="C59" t="n">
-        <v>4410</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.0345</v>
-      </c>
-      <c r="E59" t="n">
-        <v>11394</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.089</v>
-      </c>
-      <c r="G59" t="n">
-        <v>54</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3.07919517417567e-06</v>
-      </c>
-      <c r="I59" t="n">
-        <v>258.7015479248619</v>
-      </c>
-      <c r="J59" t="n">
-        <v>257.24254397484</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0</v>
-      </c>
-      <c r="C60" t="n">
-        <v>-3123</v>
-      </c>
-      <c r="D60" t="n">
-        <v>-0.0244</v>
-      </c>
-      <c r="E60" t="n">
-        <v>8649</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.06759999999999999</v>
-      </c>
-      <c r="G60" t="n">
-        <v>55</v>
-      </c>
-      <c r="H60" t="n">
-        <v>-1.671981366607249e-06</v>
-      </c>
-      <c r="I60" t="n">
-        <v>-280.8353545094142</v>
-      </c>
-      <c r="J60" t="n">
-        <v>-273.3140506985951</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>1</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0</v>
-      </c>
-      <c r="C61" t="n">
-        <v>4572</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.0357</v>
-      </c>
-      <c r="E61" t="n">
-        <v>11393</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.089</v>
-      </c>
-      <c r="G61" t="n">
-        <v>56</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3.186014823941095e-06</v>
-      </c>
-      <c r="I61" t="n">
-        <v>249.9835090068258</v>
-      </c>
-      <c r="J61" t="n">
-        <v>248.6178011626994</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>1</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" t="n">
-        <v>-3061</v>
-      </c>
-      <c r="D62" t="n">
-        <v>-0.0239</v>
-      </c>
-      <c r="E62" t="n">
-        <v>9269</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0.07240000000000001</v>
-      </c>
-      <c r="G62" t="n">
-        <v>57</v>
-      </c>
-      <c r="H62" t="n">
-        <v>-1.752407566194388e-06</v>
-      </c>
-      <c r="I62" t="n">
-        <v>-306.7886707505799</v>
-      </c>
-      <c r="J62" t="n">
-        <v>-299.1176311446349</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>1</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0</v>
-      </c>
-      <c r="C63" t="n">
-        <v>4532</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.0354</v>
-      </c>
-      <c r="E63" t="n">
-        <v>11223</v>
-      </c>
-      <c r="F63" t="n">
-        <v>0.0877</v>
-      </c>
-      <c r="G63" t="n">
-        <v>58</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3.113044204172947e-06</v>
-      </c>
-      <c r="I63" t="n">
-        <v>248.415541844054</v>
-      </c>
-      <c r="J63" t="n">
-        <v>247.0665206003193</v>
       </c>
     </row>
   </sheetData>
@@ -10309,6 +11090,278 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Ef.Generador</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Ef.Turbina</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>RPM</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Ef.Generador</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Ef.Turbina</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>RPM</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Ef.Generador</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Ef.Turbina</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10344,20 +11397,20 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Ef.Generador</t>
+          <t>RPM</t>
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>-589.2395716006785</v>
+        <v>600</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>-27.15963560869338</v>
+        <v>598.4615384615385</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>369.0569785717108</v>
+        <v>596.9230769230769</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>-127.2472702955318</v>
+        <v>598.4615384615385</v>
       </c>
     </row>
   </sheetData>
@@ -10366,7 +11419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10402,7 +11455,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Ef.Turbina</t>
+          <t>Ef.Generador</t>
         </is>
       </c>
       <c r="B2" s="0" t="n">
@@ -10416,422 +11469,6 @@
       </c>
       <c r="E2" s="0" t="n">
         <v>-127.2472702955318</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>Resistencia</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>RPM</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>378.4615384615385</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>404.6153846153846</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>427.6923076923077</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>Resistencia</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>Ef.Generador</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>20.91525422919926</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>22.11703610027974</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>21.45006650126045</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>Resistencia</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>Ef.Turbina</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>20.91525422919926</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>22.11703610027974</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>21.45006650126045</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>Resistencia</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>RPM</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>276.9230769230769</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>Resistencia</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>Ef.Generador</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>6114.931505079211</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>7391.170478479092</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>6691.55138235275</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>Resistencia</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>Ef.Turbina</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>6114.931505079211</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>7391.170478479092</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>6691.55138235275</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>Resistencia</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>RPM</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>Resistencia</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>Ef.Generador</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>7226.05770869246</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>7132.354944923445</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>6593.213005283284</v>
       </c>
     </row>
   </sheetData>
@@ -10888,7 +11525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10911,6 +11548,9 @@
       <c r="D1" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
@@ -10919,13 +11559,16 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>7226.05770869246</v>
+        <v>-589.2395716006785</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>7132.354944923445</v>
+        <v>-27.15963560869338</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>6593.213005283284</v>
+        <v>369.0569785717108</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>-127.2472702955318</v>
       </c>
     </row>
   </sheetData>
@@ -10971,13 +11614,13 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>452.3076923076923</v>
+        <v>378.4615384615385</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>413.8461538461539</v>
+        <v>404.6153846153846</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>0</v>
+        <v>427.6923076923077</v>
       </c>
     </row>
   </sheetData>
@@ -11023,13 +11666,13 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>6578.365251268558</v>
+        <v>20.91525422919926</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>6360.365422118115</v>
+        <v>22.11703610027974</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>7044.920886261396</v>
+        <v>21.45006650126045</v>
       </c>
     </row>
   </sheetData>
@@ -11075,13 +11718,13 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>6578.365251268558</v>
+        <v>20.91525422919926</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>6360.365422118115</v>
+        <v>22.11703610027974</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>7044.920886261396</v>
+        <v>21.45006650126045</v>
       </c>
     </row>
   </sheetData>
@@ -11127,13 +11770,13 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>429.2307692307692</v>
+        <v>0</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>423.0769230769231</v>
+        <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>432.3076923076923</v>
+        <v>276.9230769230769</v>
       </c>
     </row>
   </sheetData>
@@ -11179,13 +11822,13 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>-382.8406129334386</v>
+        <v>6114.931505079211</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>4338.924018217418</v>
+        <v>7391.170478479092</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>6885.112716546068</v>
+        <v>6691.55138235275</v>
       </c>
     </row>
   </sheetData>
@@ -11231,13 +11874,13 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>-382.8406129334386</v>
+        <v>6114.931505079211</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>4338.924018217418</v>
+        <v>7391.170478479092</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>6885.112716546068</v>
+        <v>6691.55138235275</v>
       </c>
     </row>
   </sheetData>
@@ -11252,7 +11895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11266,6 +11909,15 @@
           <t>Resistencia</t>
         </is>
       </c>
+      <c r="B1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
@@ -11273,6 +11925,15 @@
           <t>RPM</t>
         </is>
       </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>200</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11286,7 +11947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11300,6 +11961,15 @@
           <t>Resistencia</t>
         </is>
       </c>
+      <c r="B1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
@@ -11307,6 +11977,15 @@
           <t>Ef.Generador</t>
         </is>
       </c>
+      <c r="B2" s="0" t="n">
+        <v>7226.05770869246</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>7132.354944923445</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>6593.213005283284</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11320,7 +11999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11334,12 +12013,30 @@
           <t>Resistencia</t>
         </is>
       </c>
+      <c r="B1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
           <t>Ef.Turbina</t>
         </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>7226.05770869246</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>7132.354944923445</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>6593.213005283284</v>
       </c>
     </row>
   </sheetData>
@@ -11388,7 +12085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11411,15 +12108,6 @@
       <c r="D1" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="n">
-        <v>6</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
@@ -11428,22 +12116,13 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>98.46153846153847</v>
+        <v>452.3076923076923</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>332.3076923076923</v>
+        <v>413.8461538461539</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>361.5384615384615</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>375.3846153846154</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>387.6923076923077</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>395.3846153846154</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11453,6 +12132,368 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Ef.Generador</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>6578.365251268558</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>6360.365422118115</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>7044.920886261396</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Ef.Turbina</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>6578.365251268558</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>6360.365422118115</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>7044.920886261396</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>RPM</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>429.2307692307692</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>423.0769230769231</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>432.3076923076923</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Ef.Generador</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-382.8406129334386</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>4338.924018217418</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>6885.112716546068</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Ef.Turbina</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-382.8406129334386</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>4338.924018217418</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>6885.112716546068</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>RPM</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Ef.Generador</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Ef.Turbina</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11494,610 +12535,26 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Ef.Generador</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>6521.350349960244</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>6785.630342664554</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>6580.87157816142</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>6624.328409685918</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>6514.067963968275</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>6524.113361134182</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>Resistencia</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>Ef.Turbina</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>6521.350349960244</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>6785.630342664554</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>6580.87157816142</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>6624.328409685918</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>6514.067963968275</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>6524.113361134182</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>Resistencia</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
           <t>RPM</t>
         </is>
       </c>
       <c r="B2" s="0" t="n">
-        <v>403.0769230769231</v>
+        <v>98.46153846153847</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>403.0769230769231</v>
+        <v>332.3076923076923</v>
       </c>
       <c r="D2" s="0" t="n">
+        <v>361.5384615384615</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>375.3846153846154</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>387.6923076923077</v>
+      </c>
+      <c r="G2" s="0" t="n">
         <v>395.3846153846154</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>389.2307692307692</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>395.3846153846154</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>398.4615384615385</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>384.6153846153846</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>381.5384615384615</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>380</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>387.6923076923077</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>Resistencia</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>Ef.Generador</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>-8045.483876725223</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>5563.519995625006</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>819.9101251999419</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>-878.0256952936944</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>499.3993494098402</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>576.2419321234355</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>-685.8428763352151</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>-1687.103003209836</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>-4953.66991042649</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>-1549.229150331824</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>Resistencia</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>Ef.Turbina</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>-8045.483876725223</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>5563.519995625006</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>819.9101251999419</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>-878.0256952936944</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>499.3993494098402</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>576.2419321234355</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>-685.8428763352151</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>-1687.103003209836</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>-4953.66991042649</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>-1549.229150331824</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>Resistencia</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>RPM</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>376.9230769230769</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>390.7692307692308</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>387.6923076923077</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>398.4615384615385</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>Resistencia</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>Ef.Generador</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>481.4278667083985</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>-6352.957495997724</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>-484.5839881232484</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>106.7542547392808</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>Resistencia</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>Ef.Turbina</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>481.4278667083985</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>-6352.957495997724</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>-484.5839881232484</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>106.7542547392808</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="inlineStr">
-        <is>
-          <t>Resistencia</t>
-        </is>
-      </c>
-      <c r="B1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="inlineStr">
-        <is>
-          <t>RPM</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>367.6923076923077</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>364.6153846153846</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>375.3846153846154</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>370.7692307692308</v>
       </c>
     </row>
   </sheetData>
@@ -12140,6 +12597,660 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Ef.Generador</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>6521.350349960244</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>6785.630342664554</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>6580.87157816142</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>6624.328409685918</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>6514.067963968275</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>6524.113361134182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Ef.Turbina</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>6521.350349960244</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>6785.630342664554</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>6580.87157816142</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>6624.328409685918</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>6514.067963968275</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>6524.113361134182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>RPM</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>403.0769230769231</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>403.0769230769231</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>395.3846153846154</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>389.2307692307692</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>395.3846153846154</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>398.4615384615385</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>384.6153846153846</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>381.5384615384615</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>380</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>387.6923076923077</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Ef.Generador</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-8045.483876725223</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>5563.519995625006</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>819.9101251999419</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>-878.0256952936944</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>499.3993494098402</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>576.2419321234355</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>-685.8428763352151</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>-1687.103003209836</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>-4953.66991042649</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>-1549.229150331824</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Ef.Turbina</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>-8045.483876725223</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>5563.519995625006</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>819.9101251999419</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>-878.0256952936944</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>499.3993494098402</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>576.2419321234355</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>-685.8428763352151</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>-1687.103003209836</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>-4953.66991042649</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>-1549.229150331824</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>RPM</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>376.9230769230769</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>390.7692307692308</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>387.6923076923077</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>398.4615384615385</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Ef.Generador</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>481.4278667083985</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>-6352.957495997724</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-484.5839881232484</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>106.7542547392808</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Ef.Turbina</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>481.4278667083985</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>-6352.957495997724</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>-484.5839881232484</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>106.7542547392808</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>RPM</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>367.6923076923077</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>364.6153846153846</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>375.3846153846154</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>370.7692307692308</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -12282,7 +13393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12296,18 +13407,6 @@
           <t>Resistencia</t>
         </is>
       </c>
-      <c r="B1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="0" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
@@ -12315,18 +13414,6 @@
           <t>RPM</t>
         </is>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>600</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>598.4615384615385</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>596.9230769230769</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>598.4615384615385</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
